--- a/Characters/Selanar Durothil/Campaign_Share/Party_Loot.xlsx
+++ b/Characters/Selanar Durothil/Campaign_Share/Party_Loot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_13d2\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{D438E813-1674-4A3A-A68B-B3E54D9D336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA317A94-A98C-4F54-B457-494E5381CC19}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="8_{D438E813-1674-4A3A-A68B-B3E54D9D336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B29B9113-ED25-4E98-9F8B-08FC9D260BB7}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1680" windowWidth="21600" windowHeight="11415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1680" windowWidth="21600" windowHeight="11415" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,15 @@
     <t xml:space="preserve">1 Lb of platinum </t>
   </si>
   <si>
+    <t>10 lb. silver bar</t>
+  </si>
+  <si>
+    <t>Carrakas</t>
+  </si>
+  <si>
+    <t>Carrakas, Paleth, Anna</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Unit Weight</t>
   </si>
   <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
     <t>EQUIPMENT</t>
   </si>
   <si>
@@ -270,73 +282,73 @@
     <t>Crossbow bolt</t>
   </si>
   <si>
+    <t>0.75 lb</t>
+  </si>
+  <si>
+    <t>"drow" chain shirt</t>
+  </si>
+  <si>
+    <t>Scimitar</t>
+  </si>
+  <si>
+    <t>Flask of drow poison (DC 13)</t>
+  </si>
+  <si>
+    <t>Daggers</t>
+  </si>
+  <si>
+    <t>1 lb.</t>
+  </si>
+  <si>
+    <t>Studded leather</t>
+  </si>
+  <si>
+    <t>13 lb.</t>
+  </si>
+  <si>
+    <t>MAGIC ITEMS</t>
+  </si>
+  <si>
+    <t>MUNDANE ITEMS</t>
+  </si>
+  <si>
+    <t>6 lb.</t>
+  </si>
+  <si>
+    <t>VALUABLES</t>
+  </si>
+  <si>
+    <t>TRADE GOODS</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>10 sq. yds of canvas</t>
+  </si>
+  <si>
+    <t>10 sq. yds of cotton cloth</t>
+  </si>
+  <si>
+    <t>10 sq. yds of linen</t>
+  </si>
+  <si>
+    <t>10 sq. yds of silk</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
     <t>0.05</t>
-  </si>
-  <si>
-    <t>0.75 lb</t>
-  </si>
-  <si>
-    <t>"drow" chain shirt</t>
-  </si>
-  <si>
-    <t>Scimitar</t>
-  </si>
-  <si>
-    <t>Flask of drow poison (DC 13)</t>
-  </si>
-  <si>
-    <t>Daggers</t>
-  </si>
-  <si>
-    <t>1 lb.</t>
-  </si>
-  <si>
-    <t>Studded leather</t>
-  </si>
-  <si>
-    <t>13 lb.</t>
-  </si>
-  <si>
-    <t>MAGIC ITEMS</t>
-  </si>
-  <si>
-    <t>MUNDANE ITEMS</t>
-  </si>
-  <si>
-    <t>6 lb.</t>
-  </si>
-  <si>
-    <t>VALUABLES</t>
-  </si>
-  <si>
-    <t>TRADE GOODS</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>10 sq. yds of canvas</t>
-  </si>
-  <si>
-    <t>10 sq. yds of cotton cloth</t>
-  </si>
-  <si>
-    <t>10 sq. yds of linen</t>
-  </si>
-  <si>
-    <t>10 sq. yds of silk</t>
-  </si>
-  <si>
-    <t>Salt</t>
   </si>
   <si>
     <t>Cinnamon</t>
@@ -379,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +410,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -434,9 +454,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -445,6 +462,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F796F98-EF2E-4EE2-A45A-D67B29E359C1}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="B45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,19 +766,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1112,6 +1136,9 @@
       <c r="B27" t="s">
         <v>32</v>
       </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1147,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>44023</v>
       </c>
       <c r="B28" t="s">
@@ -1137,24 +1164,24 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8">
-        <v>44023</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="7">
+        <v>44023</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>44023</v>
       </c>
       <c r="B30" t="s">
@@ -1171,7 +1198,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>44023</v>
       </c>
       <c r="B31" t="s">
@@ -1188,7 +1215,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>44023</v>
       </c>
       <c r="B32" t="s">
@@ -1205,24 +1232,24 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8">
-        <v>44023</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="7">
+        <v>44023</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>5</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>44023</v>
       </c>
       <c r="B34" t="s">
@@ -1239,7 +1266,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>44023</v>
       </c>
       <c r="B35" t="s">
@@ -1256,7 +1283,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>44023</v>
       </c>
       <c r="B36" t="s">
@@ -1273,7 +1300,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>44023</v>
       </c>
       <c r="B37" t="s">
@@ -1290,7 +1317,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>44023</v>
       </c>
       <c r="B38" t="s">
@@ -1307,7 +1334,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>44023</v>
       </c>
       <c r="B39" t="s">
@@ -1324,7 +1351,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>44023</v>
       </c>
       <c r="B40" t="s">
@@ -1341,7 +1368,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>44023</v>
       </c>
       <c r="B41" t="s">
@@ -1358,7 +1385,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>44023</v>
       </c>
       <c r="B42" t="s">
@@ -1375,7 +1402,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>44023</v>
       </c>
       <c r="B43" t="s">
@@ -1392,7 +1419,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>44023</v>
       </c>
       <c r="B44" t="s">
@@ -1409,7 +1436,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>44023</v>
       </c>
       <c r="B45" t="s">
@@ -1426,7 +1453,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>44023</v>
       </c>
       <c r="B46" t="s">
@@ -1440,7 +1467,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>44023</v>
       </c>
       <c r="B47" t="s">
@@ -1454,7 +1481,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>44023</v>
       </c>
       <c r="B48" t="s">
@@ -1468,7 +1495,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>44023</v>
       </c>
       <c r="B49" t="s">
@@ -1482,7 +1509,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>44023</v>
       </c>
       <c r="B50" t="s">
@@ -1496,7 +1523,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>44023</v>
       </c>
       <c r="B51" t="s">
@@ -1510,7 +1537,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>44023</v>
       </c>
       <c r="B52" t="s">
@@ -1524,7 +1551,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>44023</v>
       </c>
       <c r="B53" t="s">
@@ -1538,7 +1565,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>44023</v>
       </c>
       <c r="B54" t="s">
@@ -1552,7 +1579,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>44023</v>
       </c>
       <c r="B55" t="s">
@@ -1566,7 +1593,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>44023</v>
       </c>
       <c r="B56" t="s">
@@ -1580,7 +1607,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>44023</v>
       </c>
       <c r="B57" t="s">
@@ -1594,7 +1621,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>44023</v>
       </c>
       <c r="B58" t="s">
@@ -1605,6 +1632,48 @@
       </c>
       <c r="E58" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="5">
+        <v>15</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="5">
+        <v>80</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1614,11 +1683,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1627,33 +1696,37 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15">
+      <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1">
         <v>14</v>
@@ -1662,12 +1735,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <f>B4*C4/2</f>
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1676,12 +1753,16 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>74</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G15" si="0">B5*C5/2</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -1690,12 +1771,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1704,10 +1789,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>79</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1718,10 +1807,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1732,34 +1825,46 @@
         <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>78</v>
+      <c r="C10" s="1">
+        <v>0.05</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>82</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -1768,12 +1873,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -1781,10 +1890,14 @@
       <c r="C13" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -1793,12 +1906,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1807,12 +1924,16 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1820,7 +1941,7 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1853,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -1875,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -1896,7 +2017,7 @@
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1922,13 +2043,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
-      <c r="A40" t="s">
+      <c r="A40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="11">
         <v>15</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="11">
         <v>50</v>
       </c>
     </row>
@@ -1943,7 +2064,7 @@
         <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
@@ -2040,7 +2161,7 @@
     <row r="56" spans="1:4" ht="15"/>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2048,29 +2169,29 @@
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1">
         <v>5</v>
@@ -2081,7 +2202,7 @@
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -2090,12 +2211,12 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -2104,12 +2225,12 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -2118,12 +2239,12 @@
         <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -2132,67 +2253,67 @@
         <v>15</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C66" s="1">
         <v>20</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C67" s="1">
         <v>15</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C68" s="1">
         <v>300</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C69" s="1">
         <v>500</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -2200,58 +2321,58 @@
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B75" s="1">
         <v>1807</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1">
-        <v>1283</v>
+        <v>1203</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Characters/Selanar Durothil/Campaign_Share/Party_Loot.xlsx
+++ b/Characters/Selanar Durothil/Campaign_Share/Party_Loot.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_13d2\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9d5a2ad070901d/Role Playing Games/[D^0D] Dungeons ^0 Dragons/DnD_Character_Repository/Characters/Selanar Durothil/Campaign_Share/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="8_{D438E813-1674-4A3A-A68B-B3E54D9D336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B29B9113-ED25-4E98-9F8B-08FC9D260BB7}"/>
+  <xr:revisionPtr revIDLastSave="952" documentId="8_{D438E813-1674-4A3A-A68B-B3E54D9D336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{564F8F44-CAD8-4C74-A924-F063609FA92C}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1680" windowWidth="21600" windowHeight="11415" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="2" r:id="rId1"/>
     <sheet name="Current Pool" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Attributed</t>
   </si>
   <si>
-    <t>short swords</t>
+    <t>Shortsword</t>
   </si>
   <si>
     <t>Grandfathered</t>
@@ -60,13 +60,13 @@
     <t>Pool</t>
   </si>
   <si>
-    <t>short bow</t>
-  </si>
-  <si>
-    <t>light crossbow</t>
-  </si>
-  <si>
-    <t>leather armor</t>
+    <t>Shortbow</t>
+  </si>
+  <si>
+    <t>Light crossbow</t>
+  </si>
+  <si>
+    <t>Leather armor</t>
   </si>
   <si>
     <t>Whip</t>
@@ -75,22 +75,22 @@
     <t>Hand crossbow</t>
   </si>
   <si>
-    <t>crossbow bolt</t>
-  </si>
-  <si>
-    <t>drow chain mail</t>
-  </si>
-  <si>
-    <t>scimitar</t>
-  </si>
-  <si>
-    <t>flask of poison (DC 13)</t>
-  </si>
-  <si>
-    <t>daggers</t>
-  </si>
-  <si>
-    <t>studded leather</t>
+    <t>Crossbow bolt</t>
+  </si>
+  <si>
+    <t>Drow chain mail</t>
+  </si>
+  <si>
+    <t>Scimitar</t>
+  </si>
+  <si>
+    <t>Flask of poison (DC 13)</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Studded leather</t>
   </si>
   <si>
     <t>Scroll</t>
@@ -237,6 +237,177 @@
     <t>Carrakas, Paleth, Anna</t>
   </si>
   <si>
+    <t>Paleth</t>
+  </si>
+  <si>
+    <t>Zhentarim ring</t>
+  </si>
+  <si>
+    <t>Fine boots</t>
+  </si>
+  <si>
+    <t>Javelin</t>
+  </si>
+  <si>
+    <t>Greataxe</t>
+  </si>
+  <si>
+    <t>Damaged leather armor</t>
+  </si>
+  <si>
+    <t>Picture of a child and a woman</t>
+  </si>
+  <si>
+    <t>Wedding ring</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Set of dice</t>
+  </si>
+  <si>
+    <t>Heart-shaped pendant of gold</t>
+  </si>
+  <si>
+    <t>Drow chain shirt</t>
+  </si>
+  <si>
+    <t>Black cloak with [Xanathar] symbol</t>
+  </si>
+  <si>
+    <t>Q7 chest</t>
+  </si>
+  <si>
+    <t>2 lb. bars of Mithral (Manta Ray stamp)</t>
+  </si>
+  <si>
+    <t>Thrall</t>
+  </si>
+  <si>
+    <t>Golden tokens with wings on both sides</t>
+  </si>
+  <si>
+    <t>Bag [of holding]</t>
+  </si>
+  <si>
+    <t>Selanar</t>
+  </si>
+  <si>
+    <t>Quiver [of Ehlonna]</t>
+  </si>
+  <si>
+    <t>Rope [of Climbing]</t>
+  </si>
+  <si>
+    <t>Horn [of Silent Alarm]</t>
+  </si>
+  <si>
+    <t>Silver saphire ring [ of Water Breathing]</t>
+  </si>
+  <si>
+    <t>Aster</t>
+  </si>
+  <si>
+    <t>Censer [of Controlling Air Elementals]</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Halberd</t>
+  </si>
+  <si>
+    <t>Q7 Human</t>
+  </si>
+  <si>
+    <t>Half plate</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Crowbar</t>
+  </si>
+  <si>
+    <t>Dark Common Clothes</t>
+  </si>
+  <si>
+    <t>Beltpouch</t>
+  </si>
+  <si>
+    <t>Dungeoneer's Kit</t>
+  </si>
+  <si>
+    <t>Light Crossbow</t>
+  </si>
+  <si>
+    <t>Crossbow Bolt</t>
+  </si>
+  <si>
+    <t>Tinderbox</t>
+  </si>
+  <si>
+    <t>Waterskin</t>
+  </si>
+  <si>
+    <t>50 ft. of Silk Rope</t>
+  </si>
+  <si>
+    <t>Aphelion</t>
+  </si>
+  <si>
+    <t>(Cursed) River stone?</t>
+  </si>
+  <si>
+    <t>(Drow) Chain shirt</t>
+  </si>
+  <si>
+    <t>Q7 Drow</t>
+  </si>
+  <si>
+    <t>Swortsword</t>
+  </si>
+  <si>
+    <t>Blue Quatz</t>
+  </si>
+  <si>
+    <t>Bag of Holding</t>
+  </si>
+  <si>
+    <t>Uncut Moonstone</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Uncut Zircon</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Turquise</t>
+  </si>
+  <si>
+    <t>Lynx Eye</t>
+  </si>
+  <si>
+    <t>Unrefined Pearl</t>
+  </si>
+  <si>
+    <t>Jet</t>
+  </si>
+  <si>
+    <t>Pink Pearl</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>Saphire</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -252,111 +423,102 @@
     <t>Total Revenue</t>
   </si>
   <si>
-    <t>EQUIPMENT</t>
-  </si>
-  <si>
-    <t>Shortsword</t>
-  </si>
-  <si>
-    <t>2 lb.</t>
-  </si>
-  <si>
-    <t>Shortbow</t>
-  </si>
-  <si>
-    <t>Light crossbow</t>
+    <t>WEAPONS</t>
+  </si>
+  <si>
+    <t>1 lb.</t>
   </si>
   <si>
     <t>5 lb.</t>
   </si>
   <si>
-    <t>Leather armor</t>
+    <t>ARMORS</t>
   </si>
   <si>
     <t>10 lb.</t>
   </si>
   <si>
-    <t>3 lb.</t>
-  </si>
-  <si>
-    <t>Crossbow bolt</t>
-  </si>
-  <si>
-    <t>0.75 lb</t>
-  </si>
-  <si>
-    <t>"drow" chain shirt</t>
-  </si>
-  <si>
-    <t>Scimitar</t>
+    <t>MAGIC ITEMS</t>
   </si>
   <si>
     <t>Flask of drow poison (DC 13)</t>
   </si>
   <si>
-    <t>Daggers</t>
-  </si>
-  <si>
-    <t>1 lb.</t>
-  </si>
-  <si>
-    <t>Studded leather</t>
-  </si>
-  <si>
-    <t>13 lb.</t>
-  </si>
-  <si>
-    <t>MAGIC ITEMS</t>
+    <t>Light Crossbow (Drow)</t>
+  </si>
+  <si>
+    <t>Chain shirt (Drow)</t>
+  </si>
+  <si>
+    <t>Bag of holding</t>
+  </si>
+  <si>
+    <t>Quiver of Ehlonna</t>
+  </si>
+  <si>
+    <t>Rope of Climbing</t>
+  </si>
+  <si>
+    <t>Horn of Silent Alert</t>
+  </si>
+  <si>
+    <t>Ring of Water Breathing</t>
+  </si>
+  <si>
+    <t>Chest of Preservation</t>
+  </si>
+  <si>
+    <t>Censer of Command Air Elemental</t>
   </si>
   <si>
     <t>MUNDANE ITEMS</t>
   </si>
   <si>
+    <t>Fine Boots</t>
+  </si>
+  <si>
     <t>6 lb.</t>
   </si>
   <si>
     <t>VALUABLES</t>
   </si>
   <si>
+    <t>(Art) 4 Large Paintings</t>
+  </si>
+  <si>
+    <t>(Jewelry) A bracelet with several charms on it</t>
+  </si>
+  <si>
+    <t>(Jewelry) A brass orb etched with strange runes</t>
+  </si>
+  <si>
+    <t>(Jewelry) Golden ring</t>
+  </si>
+  <si>
+    <t>(Jewelry) Golden tokens with wings on both sides</t>
+  </si>
+  <si>
+    <t>(Jewelry) Heart-shaped pendant of gold</t>
+  </si>
+  <si>
+    <t>(Jewelry) Wedding ring</t>
+  </si>
+  <si>
+    <t>(Jewelry) Zhentarim ring</t>
+  </si>
+  <si>
+    <t>(Material) 10 lb Silver Bars</t>
+  </si>
+  <si>
+    <t>A vial of quicksilver</t>
+  </si>
+  <si>
     <t>TRADE GOODS</t>
   </si>
   <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>10 sq. yds of canvas</t>
-  </si>
-  <si>
-    <t>10 sq. yds of cotton cloth</t>
-  </si>
-  <si>
-    <t>10 sq. yds of linen</t>
-  </si>
-  <si>
     <t>10 sq. yds of silk</t>
   </si>
   <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>Cinnamon</t>
-  </si>
-  <si>
-    <t>Cloves</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -369,29 +531,44 @@
     <t>Copper</t>
   </si>
   <si>
-    <t>0.01 gp</t>
-  </si>
-  <si>
     <t>0.02 lb.</t>
   </si>
   <si>
     <t>Silver</t>
   </si>
   <si>
-    <t>0.1 gp</t>
-  </si>
-  <si>
-    <t>1 gp</t>
-  </si>
-  <si>
-    <t>10 gp</t>
+    <t>Q5 of sewer lair</t>
+  </si>
+  <si>
+    <t>20 yds. of Glamerweave fine cloth</t>
+  </si>
+  <si>
+    <t>Very nice, ornate chest [of Preservation]</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Rocco</t>
+  </si>
+  <si>
+    <t>Big pile of mundane stuff</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Big pile of coins</t>
+  </si>
+  <si>
+    <t>Party</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,23 +592,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -439,11 +620,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -460,16 +650,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,29 +955,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F796F98-EF2E-4EE2-A45A-D67B29E359C1}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="47.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -782,11 +988,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>14</v>
       </c>
       <c r="D2" t="s">
@@ -796,11 +1002,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -810,11 +1016,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -824,11 +1030,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>6</v>
       </c>
       <c r="D5" t="s">
@@ -838,11 +1044,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" t="s">
@@ -852,11 +1058,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" t="s">
@@ -866,11 +1072,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>17</v>
       </c>
       <c r="D8" t="s">
@@ -880,11 +1086,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -894,11 +1100,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -908,11 +1114,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" t="s">
@@ -922,11 +1128,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" t="s">
@@ -936,11 +1142,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" t="s">
@@ -950,11 +1156,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
@@ -964,11 +1170,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" t="s">
@@ -978,11 +1184,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" t="s">
@@ -992,11 +1198,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
@@ -1006,11 +1212,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" t="s">
@@ -1020,11 +1226,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
@@ -1034,11 +1240,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" t="s">
@@ -1048,11 +1254,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="s">
@@ -1062,11 +1268,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>4</v>
       </c>
       <c r="D22" t="s">
@@ -1076,11 +1282,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>15</v>
       </c>
       <c r="D23" t="s">
@@ -1090,11 +1296,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>50</v>
       </c>
       <c r="D24" t="s">
@@ -1104,11 +1310,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" t="s">
@@ -1118,11 +1324,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>80</v>
       </c>
       <c r="D26" t="s">
@@ -1132,11 +1338,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>60</v>
       </c>
       <c r="D27" t="s">
@@ -1146,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>44023</v>
       </c>
@@ -1163,8 +1369,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7">
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="11">
         <v>44023</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1180,7 +1386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>44023</v>
       </c>
@@ -1197,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>44023</v>
       </c>
@@ -1214,7 +1420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>44023</v>
       </c>
@@ -1231,8 +1437,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7">
+    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="11">
         <v>44023</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1248,7 +1454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>44023</v>
       </c>
@@ -1265,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>44023</v>
       </c>
@@ -1282,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>44023</v>
       </c>
@@ -1299,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>44023</v>
       </c>
@@ -1316,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>44023</v>
       </c>
@@ -1333,7 +1539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>44023</v>
       </c>
@@ -1350,14 +1556,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>44023</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1800</v>
       </c>
       <c r="D40" t="s">
@@ -1367,14 +1573,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>44023</v>
       </c>
       <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1200</v>
       </c>
       <c r="D41" t="s">
@@ -1384,14 +1590,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>44023</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>50</v>
       </c>
       <c r="D42" t="s">
@@ -1401,14 +1607,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>44023</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>10</v>
       </c>
       <c r="D43" t="s">
@@ -1418,14 +1624,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>44023</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>7</v>
       </c>
       <c r="D44" t="s">
@@ -1435,14 +1641,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <v>44023</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" t="s">
@@ -1452,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>44023</v>
       </c>
@@ -1466,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>44023</v>
       </c>
@@ -1480,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <v>44023</v>
       </c>
@@ -1494,7 +1700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>44023</v>
       </c>
@@ -1508,7 +1714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>44023</v>
       </c>
@@ -1522,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <v>44023</v>
       </c>
@@ -1536,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <v>44023</v>
       </c>
@@ -1550,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <v>44023</v>
       </c>
@@ -1564,7 +1770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>44023</v>
       </c>
@@ -1578,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>44023</v>
       </c>
@@ -1592,7 +1798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>44023</v>
       </c>
@@ -1606,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <v>44023</v>
       </c>
@@ -1620,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <v>44023</v>
       </c>
@@ -1634,11 +1840,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="11">
+        <v>44035</v>
+      </c>
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -1648,11 +1857,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="11">
+        <v>44036</v>
+      </c>
       <c r="B60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="6">
         <v>80</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -1662,11 +1874,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="11">
+        <v>44037</v>
+      </c>
       <c r="B61" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -1676,713 +1891,1800 @@
         <v>66</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="6">
+        <v>5</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="7">
+        <v>44039</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="6">
+        <v>5</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="11">
+        <v>44038</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="7">
+        <v>44038</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>94</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="1">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="11">
+        <v>44044</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="11">
+        <v>44044</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="1">
+        <v>50</v>
+      </c>
+      <c r="D106" t="s">
+        <v>94</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="1">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>109</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="1">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="13">
+        <v>44044</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="16">
+        <v>1</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="11">
+        <v>44044</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="11">
+        <v>44044</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="11">
+        <v>44044</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="11">
+        <v>44044</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15">
-      <c r="A1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>70</v>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4">
-        <f>B4*C4/2</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G15" si="0">B5*C5/2</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>75</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="1">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.42500000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>200</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" s="8"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="9" t="s">
-        <v>91</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" t="s">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1">
+        <v>50</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B79"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B81"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B94"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>15</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F123">
+        <f>B123*C123</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ref="F124:F126" si="0">B124*C124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" s="1">
+        <v>101</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="11">
-        <v>15</v>
-      </c>
-      <c r="C40" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1">
-        <v>50</v>
-      </c>
-      <c r="C41" s="1">
-        <v>50</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15"/>
-    <row r="54" spans="1:4" ht="15"/>
-    <row r="55" spans="1:4" ht="15"/>
-    <row r="56" spans="1:4" ht="15"/>
-    <row r="57" spans="1:4" ht="15">
-      <c r="A57" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" ht="15">
-      <c r="A58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15">
-      <c r="A59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="C126" s="1">
         <v>10</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="1">
-        <v>5</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15">
-      <c r="A61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1">
-        <v>15</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15">
-      <c r="A65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="1">
-        <v>20</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="1">
-        <v>15</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="1">
-        <v>300</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="1">
-        <v>500</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15">
-      <c r="A73" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="75" spans="1:4" ht="15">
-      <c r="A75" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1807</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15">
-      <c r="A76" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1203</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15">
-      <c r="A77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="1">
-        <v>50</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15">
-      <c r="A78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="1">
-        <v>10</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>112</v>
+      <c r="D126" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F126" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F127" s="20">
+        <f>SUM(F123:F126)</f>
+        <v>301.02</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A73:D73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:D107">
+    <sortCondition ref="A101"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A121:D121"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Characters/Selanar Durothil/Campaign_Share/Party_Loot.xlsx
+++ b/Characters/Selanar Durothil/Campaign_Share/Party_Loot.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9d5a2ad070901d/Role Playing Games/[D^0D] Dungeons ^0 Dragons/DnD_Character_Repository/Characters/Selanar Durothil/Campaign_Share/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9d5a2ad070901d/Role Playing Games/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="8_{D438E813-1674-4A3A-A68B-B3E54D9D336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{564F8F44-CAD8-4C74-A924-F063609FA92C}"/>
+  <xr:revisionPtr revIDLastSave="977" documentId="8_{D438E813-1674-4A3A-A68B-B3E54D9D336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E6C1E7D-0544-4421-9399-6D49FB5F3499}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30270" yWindow="2070" windowWidth="21600" windowHeight="11423" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="2" r:id="rId1"/>
     <sheet name="Current Pool" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,9 @@
     <t>Carrakas, Paleth, Anna</t>
   </si>
   <si>
+    <t>Q5 of sewer lair</t>
+  </si>
+  <si>
     <t>Paleth</t>
   </si>
   <si>
@@ -276,9 +279,15 @@
     <t>Black cloak with [Xanathar] symbol</t>
   </si>
   <si>
+    <t>20 yds. of Glamerweave fine cloth</t>
+  </si>
+  <si>
     <t>Q7 chest</t>
   </si>
   <si>
+    <t>Very nice, ornate chest [of Preservation]</t>
+  </si>
+  <si>
     <t>2 lb. bars of Mithral (Manta Ray stamp)</t>
   </si>
   <si>
@@ -408,6 +417,27 @@
     <t>Saphire</t>
   </si>
   <si>
+    <t>Censer of Command Air Elemental</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Rocco</t>
+  </si>
+  <si>
+    <t>Big pile of mundane stuff</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Big pile of coins</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -426,88 +456,61 @@
     <t>WEAPONS</t>
   </si>
   <si>
-    <t>1 lb.</t>
+    <t>ARMORS</t>
+  </si>
+  <si>
+    <t>MAGIC ITEMS</t>
+  </si>
+  <si>
+    <t>Bag of holding</t>
+  </si>
+  <si>
+    <t>Quiver of Ehlonna</t>
+  </si>
+  <si>
+    <t>Rope of Climbing</t>
+  </si>
+  <si>
+    <t>Horn of Silent Alert</t>
+  </si>
+  <si>
+    <t>Ring of Water Breathing</t>
+  </si>
+  <si>
+    <t>Chest of Preservation</t>
+  </si>
+  <si>
+    <t>MUNDANE ITEMS</t>
   </si>
   <si>
     <t>5 lb.</t>
   </si>
   <si>
-    <t>ARMORS</t>
+    <t>Fine Boots</t>
+  </si>
+  <si>
+    <t>6 lb.</t>
+  </si>
+  <si>
+    <t>VALUABLES</t>
+  </si>
+  <si>
+    <t>(Jewelry) A bracelet with several charms on it</t>
+  </si>
+  <si>
+    <t>(Jewelry) A brass orb etched with strange runes</t>
+  </si>
+  <si>
+    <t>(Jewelry) Golden tokens with wings on both sides</t>
+  </si>
+  <si>
+    <t>(Material) 10 lb Silver Bars</t>
   </si>
   <si>
     <t>10 lb.</t>
   </si>
   <si>
-    <t>MAGIC ITEMS</t>
-  </si>
-  <si>
-    <t>Flask of drow poison (DC 13)</t>
-  </si>
-  <si>
-    <t>Light Crossbow (Drow)</t>
-  </si>
-  <si>
-    <t>Chain shirt (Drow)</t>
-  </si>
-  <si>
-    <t>Bag of holding</t>
-  </si>
-  <si>
-    <t>Quiver of Ehlonna</t>
-  </si>
-  <si>
-    <t>Rope of Climbing</t>
-  </si>
-  <si>
-    <t>Horn of Silent Alert</t>
-  </si>
-  <si>
-    <t>Ring of Water Breathing</t>
-  </si>
-  <si>
-    <t>Chest of Preservation</t>
-  </si>
-  <si>
-    <t>Censer of Command Air Elemental</t>
-  </si>
-  <si>
-    <t>MUNDANE ITEMS</t>
-  </si>
-  <si>
-    <t>Fine Boots</t>
-  </si>
-  <si>
-    <t>6 lb.</t>
-  </si>
-  <si>
-    <t>VALUABLES</t>
-  </si>
-  <si>
-    <t>(Art) 4 Large Paintings</t>
-  </si>
-  <si>
-    <t>(Jewelry) A bracelet with several charms on it</t>
-  </si>
-  <si>
-    <t>(Jewelry) A brass orb etched with strange runes</t>
-  </si>
-  <si>
-    <t>(Jewelry) Golden ring</t>
-  </si>
-  <si>
-    <t>(Jewelry) Golden tokens with wings on both sides</t>
-  </si>
-  <si>
-    <t>(Jewelry) Heart-shaped pendant of gold</t>
-  </si>
-  <si>
-    <t>(Jewelry) Wedding ring</t>
-  </si>
-  <si>
-    <t>(Jewelry) Zhentarim ring</t>
-  </si>
-  <si>
-    <t>(Material) 10 lb Silver Bars</t>
+    <t>12 lbs used for silvering</t>
   </si>
   <si>
     <t>A vial of quicksilver</t>
@@ -516,59 +519,29 @@
     <t>TRADE GOODS</t>
   </si>
   <si>
-    <t>10 sq. yds of silk</t>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>0.02 lb.</t>
+  </si>
+  <si>
+    <t>Silver</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
     <t>Platinum</t>
-  </si>
-  <si>
-    <t>CURRENCY</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>0.02 lb.</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Q5 of sewer lair</t>
-  </si>
-  <si>
-    <t>20 yds. of Glamerweave fine cloth</t>
-  </si>
-  <si>
-    <t>Very nice, ornate chest [of Preservation]</t>
-  </si>
-  <si>
-    <t>Ship</t>
-  </si>
-  <si>
-    <t>Rocco</t>
-  </si>
-  <si>
-    <t>Big pile of mundane stuff</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Big pile of coins</t>
-  </si>
-  <si>
-    <t>Party</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -653,16 +626,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -675,6 +639,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,30 +925,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F796F98-EF2E-4EE2-A45A-D67B29E359C1}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" customWidth="1"/>
-    <col min="2" max="2" width="47.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="1"/>
-    <col min="4" max="4" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -988,7 +958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1086,7 +1056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1170,7 +1140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -1310,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -1324,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -1352,7 +1322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="A28" s="7">
         <v>44023</v>
       </c>
@@ -1369,8 +1339,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="11">
+    <row r="29" spans="1:5" s="5" customFormat="1">
+      <c r="A29" s="9">
         <v>44023</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1386,7 +1356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5">
       <c r="A30" s="7">
         <v>44023</v>
       </c>
@@ -1403,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5">
       <c r="A31" s="7">
         <v>44023</v>
       </c>
@@ -1420,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5">
       <c r="A32" s="7">
         <v>44023</v>
       </c>
@@ -1437,8 +1407,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="11">
+    <row r="33" spans="1:5" s="5" customFormat="1">
+      <c r="A33" s="9">
         <v>44023</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1454,7 +1424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5">
       <c r="A34" s="7">
         <v>44023</v>
       </c>
@@ -1471,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5">
       <c r="A35" s="7">
         <v>44023</v>
       </c>
@@ -1488,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5">
       <c r="A36" s="7">
         <v>44023</v>
       </c>
@@ -1505,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5">
       <c r="A37" s="7">
         <v>44023</v>
       </c>
@@ -1522,7 +1492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5">
       <c r="A38" s="7">
         <v>44023</v>
       </c>
@@ -1539,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5">
       <c r="A39" s="7">
         <v>44023</v>
       </c>
@@ -1556,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5">
       <c r="A40" s="7">
         <v>44023</v>
       </c>
@@ -1573,7 +1543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5">
       <c r="A41" s="7">
         <v>44023</v>
       </c>
@@ -1590,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5">
       <c r="A42" s="7">
         <v>44023</v>
       </c>
@@ -1607,7 +1577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5">
       <c r="A43" s="7">
         <v>44023</v>
       </c>
@@ -1624,7 +1594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5">
       <c r="A44" s="7">
         <v>44023</v>
       </c>
@@ -1641,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5">
       <c r="A45" s="7">
         <v>44023</v>
       </c>
@@ -1658,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5">
       <c r="A46" s="7">
         <v>44023</v>
       </c>
@@ -1672,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5">
       <c r="A47" s="7">
         <v>44023</v>
       </c>
@@ -1686,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5">
       <c r="A48" s="7">
         <v>44023</v>
       </c>
@@ -1700,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5">
       <c r="A49" s="7">
         <v>44023</v>
       </c>
@@ -1714,7 +1684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5">
       <c r="A50" s="7">
         <v>44023</v>
       </c>
@@ -1728,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5">
       <c r="A51" s="7">
         <v>44023</v>
       </c>
@@ -1742,7 +1712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5">
       <c r="A52" s="7">
         <v>44023</v>
       </c>
@@ -1756,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5">
       <c r="A53" s="7">
         <v>44023</v>
       </c>
@@ -1770,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5">
       <c r="A54" s="7">
         <v>44023</v>
       </c>
@@ -1784,7 +1754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5">
       <c r="A55" s="7">
         <v>44023</v>
       </c>
@@ -1798,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5">
       <c r="A56" s="7">
         <v>44023</v>
       </c>
@@ -1812,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5">
       <c r="A57" s="7">
         <v>44023</v>
       </c>
@@ -1826,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5">
       <c r="A58" s="7">
         <v>44023</v>
       </c>
@@ -1840,8 +1810,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="11">
+    <row r="59" spans="1:5" s="5" customFormat="1">
+      <c r="A59" s="9">
         <v>44035</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -1857,8 +1827,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="11">
+    <row r="60" spans="1:5" s="5" customFormat="1">
+      <c r="A60" s="9">
         <v>44036</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -1874,8 +1844,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="11">
+    <row r="61" spans="1:5" s="5" customFormat="1">
+      <c r="A61" s="9">
         <v>44037</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1891,7 +1861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5">
       <c r="A62" s="7">
         <v>44038</v>
       </c>
@@ -1902,14 +1872,14 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="11">
+    <row r="63" spans="1:5" s="5" customFormat="1">
+      <c r="A63" s="9">
         <v>44038</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -1919,13 +1889,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="7">
         <v>44038</v>
       </c>
@@ -1936,13 +1906,13 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5">
       <c r="A65" s="7">
         <v>44038</v>
       </c>
@@ -1953,81 +1923,81 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5">
       <c r="A66" s="7">
         <v>44038</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5">
       <c r="A67" s="7">
         <v>44038</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5">
       <c r="A68" s="7">
         <v>44038</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5">
       <c r="A69" s="7">
         <v>44038</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5">
       <c r="A70" s="7">
         <v>44038</v>
       </c>
@@ -2038,81 +2008,81 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5">
       <c r="A71" s="7">
         <v>44038</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5">
       <c r="A72" s="7">
         <v>44038</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5">
       <c r="A73" s="7">
         <v>44038</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5">
       <c r="A74" s="7">
         <v>44038</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5">
       <c r="A75" s="7">
         <v>44038</v>
       </c>
@@ -2123,30 +2093,30 @@
         <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5">
       <c r="A76" s="7">
         <v>44038</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5">
       <c r="A77" s="7">
         <v>44038</v>
       </c>
@@ -2157,64 +2127,64 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5">
       <c r="A78" s="7">
         <v>44038</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5">
       <c r="A79" s="7">
         <v>44038</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5">
       <c r="A80" s="7">
         <v>44038</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5">
       <c r="A81" s="7">
         <v>44038</v>
       </c>
@@ -2225,421 +2195,421 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5">
       <c r="A82" s="7">
         <v>44038</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5">
       <c r="A83" s="7">
         <v>44038</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="11">
+    <row r="84" spans="1:5">
+      <c r="A84" s="9">
         <v>44038</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C84" s="6">
         <v>5</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="7">
         <v>44038</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="11">
+    <row r="86" spans="1:5" s="5" customFormat="1">
+      <c r="A86" s="9">
         <v>44038</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C86" s="6">
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="5" customFormat="1">
+      <c r="A87" s="9">
         <v>44038</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="7">
         <v>44038</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5">
       <c r="A89" s="7">
         <v>44038</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="11">
+    <row r="90" spans="1:5" s="5" customFormat="1">
+      <c r="A90" s="9">
         <v>44038</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C90" s="6">
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="7">
         <v>44039</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="11">
+    <row r="92" spans="1:5">
+      <c r="A92" s="9">
         <v>44038</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C92" s="6">
         <v>5</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="9">
         <v>44038</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C93" s="6">
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="9">
         <v>44038</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C94" s="6">
         <v>1</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="7">
         <v>44038</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5">
       <c r="A96" s="7">
         <v>44038</v>
       </c>
       <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>94</v>
-      </c>
       <c r="E96" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5">
       <c r="A97" s="7">
         <v>44044</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5">
       <c r="A98" s="7">
         <v>44044</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5">
       <c r="A99" s="7">
         <v>44044</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E99" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5">
       <c r="A100" s="7">
         <v>44044</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5">
       <c r="A101" s="7">
         <v>44044</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C101" s="1">
         <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5">
       <c r="A102" s="7">
         <v>44044</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5">
       <c r="A103" s="7">
         <v>44044</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="11">
+    <row r="104" spans="1:5" s="5" customFormat="1">
+      <c r="A104" s="9">
         <v>44044</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C104" s="6">
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="5" customFormat="1">
+      <c r="A105" s="9">
         <v>44044</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C105" s="6">
         <v>1</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="7">
         <v>44044</v>
       </c>
@@ -2650,47 +2620,47 @@
         <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5">
       <c r="A107" s="7">
         <v>44044</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C107" s="1">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5">
       <c r="A108" s="7">
         <v>44044</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C108" s="1">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5">
       <c r="A109" s="7">
         <v>44044</v>
       </c>
@@ -2701,30 +2671,30 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5">
       <c r="A110" s="7">
         <v>44044</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C110" s="1">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5">
       <c r="A111" s="7">
         <v>44044</v>
       </c>
@@ -2735,218 +2705,218 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5">
       <c r="A112" s="7">
         <v>44044</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5">
       <c r="A113" s="7">
         <v>44044</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5">
       <c r="A114" s="7">
         <v>44044</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5">
       <c r="A115" s="7">
         <v>44044</v>
       </c>
       <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>112</v>
-      </c>
       <c r="E115" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5">
       <c r="A116" s="7">
         <v>44044</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5">
       <c r="A117" s="7">
         <v>44044</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5">
       <c r="A118" s="7">
         <v>44044</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5">
       <c r="A119" s="7">
         <v>44044</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C119" s="1">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5">
       <c r="A120" s="7">
         <v>44044</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="13">
+    <row r="121" spans="1:5" s="11" customFormat="1">
+      <c r="A121" s="10">
         <v>44044</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" s="16">
-        <v>1</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B121" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" s="13">
+        <v>1</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="7">
         <v>44044</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5">
       <c r="A123" s="7">
         <v>44044</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="11">
+    <row r="124" spans="1:5" s="5" customFormat="1">
+      <c r="A124" s="9">
         <v>44044</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -2959,58 +2929,75 @@
         <v>7</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="5" customFormat="1">
+      <c r="A125" s="9">
         <v>44044</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C125" s="6">
         <v>1</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="5" customFormat="1">
+      <c r="A126" s="9">
         <v>44044</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="5" customFormat="1">
+      <c r="A127" s="9">
         <v>44044</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>175</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="7">
+        <v>44079</v>
+      </c>
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="1">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>129</v>
+      </c>
+      <c r="E128" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3021,669 +3008,577 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>127</v>
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="C4" s="8"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G13" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="11" customFormat="1">
+      <c r="A26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1">
+      <c r="A27" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="11" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" s="11" customFormat="1">
+      <c r="A30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>50</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F113">
+        <f>B113*C113</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="18">
-        <v>1</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="18">
-        <v>1</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="16">
-        <v>1</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="16">
-        <v>1</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="1">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="1">
-        <v>6</v>
-      </c>
-      <c r="C73" s="1">
-        <v>50</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B79"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B81"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B83"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B85"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B87"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B94"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A99" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" s="1">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1">
-        <v>15</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A121" s="12" t="s">
+      <c r="C114" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>164</v>
-      </c>
-      <c r="B123" s="1">
-        <v>2</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="F114">
+        <f t="shared" ref="F114:F116" si="0">B114*C114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
         <v>165</v>
       </c>
-      <c r="F123">
-        <f>B123*C123</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+      <c r="B115" s="1">
+        <v>10</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A116" t="s">
         <v>166</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B116" s="1">
         <v>0</v>
       </c>
-      <c r="C124" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F124">
-        <f t="shared" ref="F124:F126" si="0">B124*C124</f>
+      <c r="C116" s="1">
+        <v>10</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F116" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="1">
-        <v>101</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A126" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="1">
-        <v>20</v>
-      </c>
-      <c r="C126" s="1">
-        <v>10</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F126" s="19">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F127" s="20">
-        <f>SUM(F123:F126)</f>
-        <v>301.02</v>
+    <row r="117" spans="1:6">
+      <c r="F117" s="17">
+        <f>SUM(F113:F116)</f>
+        <v>10.02</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:D107">
-    <sortCondition ref="A101"/>
-  </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A111:D111"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A91:D91"/>
     <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
